--- a/natmiOut/OldD0/LR-pairs_lrc2p/Tgfb1-Tgfbr1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Tgfb1-Tgfbr1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>72.69474493649091</v>
+        <v>98.91277700000001</v>
       </c>
       <c r="H2">
-        <v>72.69474493649091</v>
+        <v>296.738331</v>
       </c>
       <c r="I2">
-        <v>0.7607719698028754</v>
+        <v>0.8120825131376513</v>
       </c>
       <c r="J2">
-        <v>0.7607719698028754</v>
+        <v>0.8120825131376513</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>24.7027948823333</v>
+        <v>68.65869266666667</v>
       </c>
       <c r="N2">
-        <v>24.7027948823333</v>
+        <v>205.976078</v>
       </c>
       <c r="O2">
-        <v>0.3984878066090406</v>
+        <v>0.6475952735309433</v>
       </c>
       <c r="P2">
-        <v>0.3984878066090406</v>
+        <v>0.6475952735309431</v>
       </c>
       <c r="Q2">
-        <v>1795.763373189672</v>
+        <v>6791.221956849536</v>
       </c>
       <c r="R2">
-        <v>1795.763373189672</v>
+        <v>61120.99761164582</v>
       </c>
       <c r="S2">
-        <v>0.3031583535763871</v>
+        <v>0.5259007972250731</v>
       </c>
       <c r="T2">
-        <v>0.3031583535763871</v>
+        <v>0.5259007972250731</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>72.69474493649091</v>
+        <v>98.91277700000001</v>
       </c>
       <c r="H3">
-        <v>72.69474493649091</v>
+        <v>296.738331</v>
       </c>
       <c r="I3">
-        <v>0.7607719698028754</v>
+        <v>0.8120825131376513</v>
       </c>
       <c r="J3">
-        <v>0.7607719698028754</v>
+        <v>0.8120825131376513</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>28.2169386162403</v>
+        <v>28.23943666666667</v>
       </c>
       <c r="N3">
-        <v>28.2169386162403</v>
+        <v>84.71831</v>
       </c>
       <c r="O3">
-        <v>0.4551754581603631</v>
+        <v>0.2663570336431459</v>
       </c>
       <c r="P3">
-        <v>0.4551754581603631</v>
+        <v>0.2663570336431459</v>
       </c>
       <c r="Q3">
-        <v>2051.223155596209</v>
+        <v>2793.241101615623</v>
       </c>
       <c r="R3">
-        <v>2051.223155596209</v>
+        <v>25139.16991454061</v>
       </c>
       <c r="S3">
-        <v>0.3462847299105857</v>
+        <v>0.2163038892728159</v>
       </c>
       <c r="T3">
-        <v>0.3462847299105857</v>
+        <v>0.2163038892728159</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>72.69474493649091</v>
+        <v>98.91277700000001</v>
       </c>
       <c r="H4">
-        <v>72.69474493649091</v>
+        <v>296.738331</v>
       </c>
       <c r="I4">
-        <v>0.7607719698028754</v>
+        <v>0.8120825131376513</v>
       </c>
       <c r="J4">
-        <v>0.7607719698028754</v>
+        <v>0.8120825131376513</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.071610960729769</v>
+        <v>9.122861666666667</v>
       </c>
       <c r="N4">
-        <v>9.071610960729769</v>
+        <v>27.368585</v>
       </c>
       <c r="O4">
-        <v>0.1463367352305963</v>
+        <v>0.08604769282591093</v>
       </c>
       <c r="P4">
-        <v>0.1463367352305963</v>
+        <v>0.08604769282591092</v>
       </c>
       <c r="Q4">
-        <v>659.4584449533259</v>
+        <v>902.3675816368484</v>
       </c>
       <c r="R4">
-        <v>659.4584449533259</v>
+        <v>8121.308234731635</v>
       </c>
       <c r="S4">
-        <v>0.1113288863159026</v>
+        <v>0.0698778266397624</v>
       </c>
       <c r="T4">
-        <v>0.1113288863159026</v>
+        <v>0.06987782663976239</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.0230913139886</v>
+        <v>17.04862266666667</v>
       </c>
       <c r="H5">
-        <v>17.0230913139886</v>
+        <v>51.14586800000001</v>
       </c>
       <c r="I5">
-        <v>0.1781516768838185</v>
+        <v>0.1399706767982279</v>
       </c>
       <c r="J5">
-        <v>0.1781516768838185</v>
+        <v>0.1399706767982279</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>24.7027948823333</v>
+        <v>68.65869266666667</v>
       </c>
       <c r="N5">
-        <v>24.7027948823333</v>
+        <v>205.976078</v>
       </c>
       <c r="O5">
-        <v>0.3984878066090406</v>
+        <v>0.6475952735309433</v>
       </c>
       <c r="P5">
-        <v>0.3984878066090406</v>
+        <v>0.6475952735309431</v>
       </c>
       <c r="Q5">
-        <v>420.5179329926901</v>
+        <v>1170.536144060634</v>
       </c>
       <c r="R5">
-        <v>420.5179329926901</v>
+        <v>10534.8252965457</v>
       </c>
       <c r="S5">
-        <v>0.07099127096515535</v>
+        <v>0.09064434872745968</v>
       </c>
       <c r="T5">
-        <v>0.07099127096515535</v>
+        <v>0.09064434872745966</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.0230913139886</v>
+        <v>17.04862266666667</v>
       </c>
       <c r="H6">
-        <v>17.0230913139886</v>
+        <v>51.14586800000001</v>
       </c>
       <c r="I6">
-        <v>0.1781516768838185</v>
+        <v>0.1399706767982279</v>
       </c>
       <c r="J6">
-        <v>0.1781516768838185</v>
+        <v>0.1399706767982279</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>28.2169386162403</v>
+        <v>28.23943666666667</v>
       </c>
       <c r="N6">
-        <v>28.2169386162403</v>
+        <v>84.71831</v>
       </c>
       <c r="O6">
-        <v>0.4551754581603631</v>
+        <v>0.2663570336431459</v>
       </c>
       <c r="P6">
-        <v>0.4551754581603631</v>
+        <v>0.2663570336431459</v>
       </c>
       <c r="Q6">
-        <v>480.3395226654698</v>
+        <v>481.4435000492312</v>
       </c>
       <c r="R6">
-        <v>480.3395226654698</v>
+        <v>4332.99150044308</v>
       </c>
       <c r="S6">
-        <v>0.08109027114762905</v>
+        <v>0.0372821742689995</v>
       </c>
       <c r="T6">
-        <v>0.08109027114762905</v>
+        <v>0.0372821742689995</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.0230913139886</v>
+        <v>17.04862266666667</v>
       </c>
       <c r="H7">
-        <v>17.0230913139886</v>
+        <v>51.14586800000001</v>
       </c>
       <c r="I7">
-        <v>0.1781516768838185</v>
+        <v>0.1399706767982279</v>
       </c>
       <c r="J7">
-        <v>0.1781516768838185</v>
+        <v>0.1399706767982279</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.071610960729769</v>
+        <v>9.122861666666667</v>
       </c>
       <c r="N7">
-        <v>9.071610960729769</v>
+        <v>27.368585</v>
       </c>
       <c r="O7">
-        <v>0.1463367352305963</v>
+        <v>0.08604769282591093</v>
       </c>
       <c r="P7">
-        <v>0.1463367352305963</v>
+        <v>0.08604769282591092</v>
       </c>
       <c r="Q7">
-        <v>154.4268617494827</v>
+        <v>155.5322261951978</v>
       </c>
       <c r="R7">
-        <v>154.4268617494827</v>
+        <v>1399.79003575678</v>
       </c>
       <c r="S7">
-        <v>0.02607013477103409</v>
+        <v>0.01204415380176878</v>
       </c>
       <c r="T7">
-        <v>0.02607013477103409</v>
+        <v>0.01204415380176877</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.83608505832861</v>
+        <v>5.839988000000001</v>
       </c>
       <c r="H8">
-        <v>5.83608505832861</v>
+        <v>17.519964</v>
       </c>
       <c r="I8">
-        <v>0.06107635331330608</v>
+        <v>0.0479468100641207</v>
       </c>
       <c r="J8">
-        <v>0.06107635331330608</v>
+        <v>0.04794681006412069</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>24.7027948823333</v>
+        <v>68.65869266666667</v>
       </c>
       <c r="N8">
-        <v>24.7027948823333</v>
+        <v>205.976078</v>
       </c>
       <c r="O8">
-        <v>0.3984878066090406</v>
+        <v>0.6475952735309433</v>
       </c>
       <c r="P8">
-        <v>0.3984878066090406</v>
+        <v>0.6475952735309431</v>
       </c>
       <c r="Q8">
-        <v>144.1676121117418</v>
+        <v>400.9659412690214</v>
       </c>
       <c r="R8">
-        <v>144.1676121117418</v>
+        <v>3608.693471421192</v>
       </c>
       <c r="S8">
-        <v>0.02433818206749815</v>
+        <v>0.03105012757841043</v>
       </c>
       <c r="T8">
-        <v>0.02433818206749815</v>
+        <v>0.03105012757841042</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.83608505832861</v>
+        <v>5.839988000000001</v>
       </c>
       <c r="H9">
-        <v>5.83608505832861</v>
+        <v>17.519964</v>
       </c>
       <c r="I9">
-        <v>0.06107635331330608</v>
+        <v>0.0479468100641207</v>
       </c>
       <c r="J9">
-        <v>0.06107635331330608</v>
+        <v>0.04794681006412069</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>28.2169386162403</v>
+        <v>28.23943666666667</v>
       </c>
       <c r="N9">
-        <v>28.2169386162403</v>
+        <v>84.71831</v>
       </c>
       <c r="O9">
-        <v>0.4551754581603631</v>
+        <v>0.2663570336431459</v>
       </c>
       <c r="P9">
-        <v>0.4551754581603631</v>
+        <v>0.2663570336431459</v>
       </c>
       <c r="Q9">
-        <v>164.6764538500156</v>
+        <v>164.9179712600934</v>
       </c>
       <c r="R9">
-        <v>164.6764538500156</v>
+        <v>1484.26174134084</v>
       </c>
       <c r="S9">
-        <v>0.0278004571021483</v>
+        <v>0.01277097010133052</v>
       </c>
       <c r="T9">
-        <v>0.0278004571021483</v>
+        <v>0.01277097010133052</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.83608505832861</v>
+        <v>5.839988000000001</v>
       </c>
       <c r="H10">
-        <v>5.83608505832861</v>
+        <v>17.519964</v>
       </c>
       <c r="I10">
-        <v>0.06107635331330608</v>
+        <v>0.0479468100641207</v>
       </c>
       <c r="J10">
-        <v>0.06107635331330608</v>
+        <v>0.04794681006412069</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.071610960729769</v>
+        <v>9.122861666666667</v>
       </c>
       <c r="N10">
-        <v>9.071610960729769</v>
+        <v>27.368585</v>
       </c>
       <c r="O10">
-        <v>0.1463367352305963</v>
+        <v>0.08604769282591093</v>
       </c>
       <c r="P10">
-        <v>0.1463367352305963</v>
+        <v>0.08604769282591092</v>
       </c>
       <c r="Q10">
-        <v>52.94269318288505</v>
+        <v>53.27740265899335</v>
       </c>
       <c r="R10">
-        <v>52.94269318288505</v>
+        <v>479.49662393094</v>
       </c>
       <c r="S10">
-        <v>0.008937714143659624</v>
+        <v>0.004125712384379753</v>
       </c>
       <c r="T10">
-        <v>0.008937714143659624</v>
+        <v>0.004125712384379751</v>
       </c>
     </row>
   </sheetData>
